--- a/file_bo_xung/frontend/dantoc.xlsx
+++ b/file_bo_xung/frontend/dantoc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
   <si>
     <t>f_madt</t>
   </si>
@@ -27,258 +27,399 @@
     <t>f_tendtc</t>
   </si>
   <si>
+    <t>f_tendtcvn</t>
+  </si>
+  <si>
+    <t>f_default</t>
+  </si>
+  <si>
+    <t>f_madt1</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
     <t>KINH</t>
   </si>
   <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
     <t>TAY</t>
   </si>
   <si>
+    <t>Tµy</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
     <t>THAI</t>
   </si>
   <si>
+    <t>Th¸i</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
     <t>HOA</t>
   </si>
   <si>
+    <t>Hoa</t>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
     <t>KHO ME</t>
   </si>
   <si>
+    <t>Kh¬ Me</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
     <t>MUONG</t>
   </si>
   <si>
+    <t>M­êng</t>
+  </si>
+  <si>
     <t>07</t>
   </si>
   <si>
     <t>NUNG</t>
   </si>
   <si>
+    <t>Nïng</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
     <t>HMONG</t>
   </si>
   <si>
+    <t>Hm«ng</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
     <t>DAO</t>
   </si>
   <si>
+    <t>Dao</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>NGAI</t>
   </si>
   <si>
+    <t>Ng¸i</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>SAN CHAY</t>
   </si>
   <si>
+    <t>S¸n Chay</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>CHAM</t>
   </si>
   <si>
+    <t>Ch¨m</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
     <t>SAN DIU</t>
   </si>
   <si>
+    <t>S¸n Diu</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>VAN KIEU</t>
   </si>
   <si>
+    <t>V©n KiÒu</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
     <t>THO</t>
   </si>
   <si>
+    <t>Thæ</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
     <t>GIAY</t>
   </si>
   <si>
+    <t>Gi¸y</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
     <t>CO TU</t>
   </si>
   <si>
+    <t>C¬ Tu</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
     <t>KHO MU</t>
   </si>
   <si>
+    <t>Kh¬ Mó</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>TA OI</t>
   </si>
   <si>
+    <t>Ta ¤i</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
     <t>KHANG</t>
   </si>
   <si>
+    <t>Kh¸ng</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
     <t>LAO</t>
   </si>
   <si>
+    <t>Lµo</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
     <t>LA CHI</t>
   </si>
   <si>
+    <t>La ChÝ</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
     <t>PHU LA</t>
   </si>
   <si>
+    <t>Phï L¸</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
     <t>LO LO</t>
   </si>
   <si>
+    <t>L« L«</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
     <t>PA THEN</t>
   </si>
   <si>
+    <t>Pµ ThÎn</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
     <t>CO LAO</t>
   </si>
   <si>
+    <t>C¬ Lao</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
     <t>BO Y</t>
   </si>
   <si>
+    <t>Bè Y</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
     <t>SI LA</t>
   </si>
   <si>
+    <t>Si La</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
     <t>PU PEO</t>
   </si>
   <si>
+    <t>Pu PÐo</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
     <t>KHAC</t>
   </si>
   <si>
+    <t>Kh¸c</t>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
     <t>KHAC KINH</t>
   </si>
   <si>
+    <t>Kh¸c Kinh</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
     <t>GIA RAI</t>
   </si>
   <si>
+    <t>Gia Rai</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
     <t>E DE</t>
   </si>
   <si>
+    <t>£ §ª</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
     <t>BA NA</t>
   </si>
   <si>
+    <t>Ba Na</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
     <t>XO DANG</t>
   </si>
   <si>
+    <t>X¬ §¨ng</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
     <t>CO HO</t>
   </si>
   <si>
+    <t>C¬ Ho</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
     <t>HRE</t>
   </si>
   <si>
+    <t>Hrª</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
     <t>MNONG</t>
   </si>
   <si>
+    <t>Mn«ng</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
     <t>RA GIAI</t>
   </si>
   <si>
+    <t>Ra Giai</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
     <t>XTIENG</t>
   </si>
   <si>
+    <t>Xtiªng</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
     <t>GIE TRIENG</t>
   </si>
   <si>
+    <t>Giª Triªng</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
     <t>MA</t>
   </si>
   <si>
+    <t>M¹</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -288,106 +429,160 @@
     <t>CO</t>
   </si>
   <si>
+    <t>Co</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
     <t>CHO RO</t>
   </si>
   <si>
+    <t>Ch¬ Ro</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
     <t>XINH MUN</t>
   </si>
   <si>
+    <t>Xinh Mun</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
     <t>HA NHI</t>
   </si>
   <si>
+    <t>Hµ Nhi</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
     <t>CHU RU</t>
   </si>
   <si>
+    <t>Chu Ru</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
     <t>LA HA</t>
   </si>
   <si>
+    <t>La Ha</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
     <t>LA HU</t>
   </si>
   <si>
+    <t>La Hñ</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
     <t>LU</t>
   </si>
   <si>
+    <t>Lù</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
     <t>CHUT</t>
   </si>
   <si>
+    <t>Chøt</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
     <t>MANG</t>
   </si>
   <si>
+    <t>M¶ng</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
     <t>CONG</t>
   </si>
   <si>
+    <t>Cèng</t>
+  </si>
+  <si>
     <t>54</t>
   </si>
   <si>
     <t>BRAU</t>
   </si>
   <si>
+    <t>Br©u</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
     <t>O DU</t>
   </si>
   <si>
+    <t>¥ §u</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
     <t>RO MAM</t>
   </si>
   <si>
+    <t>R¬ M¨m</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
     <t>CAO LAN</t>
   </si>
   <si>
+    <t>Cao Lan</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
     <t>NGAN</t>
   </si>
   <si>
+    <t>Ng¹n</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
     <t>DAY</t>
   </si>
   <si>
+    <t>D¸y</t>
+  </si>
+  <si>
     <t>60</t>
   </si>
   <si>
     <t>NUOC NGOAI</t>
+  </si>
+  <si>
+    <t>N­íc ngoµi</t>
   </si>
 </sst>
 </file>
@@ -770,512 +965,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="C61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>